--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/10/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.5785</v>
+        <v>12.7503</v>
       </c>
     </row>
     <row r="4">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.45269999999997</v>
+        <v>-20.36849999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.88880000000001</v>
+        <v>-22.98810000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.15090000000002</v>
+        <v>-22.27040000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
